--- a/7rmrtsupermarket/src/test/resources/Testdata.xlsx
+++ b/7rmrtsupermarket/src/test/resources/Testdata.xlsx
@@ -12,6 +12,7 @@
     <sheet name="adminuserpage" sheetId="3" r:id="rId3"/>
     <sheet name="managefooter" sheetId="4" r:id="rId4"/>
     <sheet name="managecontact" sheetId="5" r:id="rId5"/>
+    <sheet name="subcategory" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -737,7 +738,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
@@ -1151,7 +1152,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1192,7 +1193,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
@@ -1250,7 +1251,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1316,4 +1317,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>